--- a/_encuestas/Calificaciones-2026.xlsx
+++ b/_encuestas/Calificaciones-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equih\0 Versiones\Cursos\m3-causalidad\2026\_encuestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77E98BD-47F1-45EC-AD58-C62E7E4F8F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791FEA0A-06CE-4BB2-AF3E-6041E031E18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{57F80845-2267-40DF-BE0E-C1B19A076F2C}"/>
   </bookViews>
@@ -274,15 +274,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -307,12 +304,6 @@
   <dxfs count="17">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -380,6 +371,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -418,30 +415,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73ABBB88-012A-41ED-83E3-98ED2A9CD37B}" name="entregados" displayName="entregados" ref="A1:O15" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73ABBB88-012A-41ED-83E3-98ED2A9CD37B}" name="entregados" displayName="entregados" ref="A1:O15" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{2111EA4D-D771-44C1-9A84-295540C4B084}" uniqueName="1" name="alumno" queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{1A28A577-6613-474A-8193-8097ACCDB65D}" uniqueName="6" name="lec1" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{CFA4096E-F675-4571-9B6D-83BB641558C0}" uniqueName="7" name="lec2" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{0D8F4051-1CF1-4D07-A2EE-17FAA149A10D}" uniqueName="8" name="lec3" queryTableFieldId="8" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{79E4657A-C65C-4AC7-89F0-C2ECAAAC78E3}" uniqueName="2" name="eje1" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2E319FDF-AC9A-4FFA-986F-4451AB8C9772}" uniqueName="3" name="eje2" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{814EF27A-7228-4467-AD5B-A40C0BF24D9F}" uniqueName="4" name="eje3" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{5F6429AF-B6DD-4860-86D3-65C390A5A50D}" uniqueName="5" name="eje4" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{D433EA0A-F016-4188-8831-3D74C2D62DBA}" uniqueName="10" name="bienvenida" queryTableFieldId="10" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{D43AA51E-2FE9-4185-A155-850F4BF223C1}" uniqueName="11" name="dag" queryTableFieldId="11" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{2A8DFE4E-0DA8-4D9A-A208-A798D6135810}" uniqueName="12" name="epistemología" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{0779510D-D57B-4E9A-B22A-25796A297038}" uniqueName="13" name="hipotesis" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{248E70DC-780C-4CBD-BF94-7D153488C6E0}" uniqueName="14" name="calificación " queryTableFieldId="18" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{2111EA4D-D771-44C1-9A84-295540C4B084}" uniqueName="1" name="alumno" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{1A28A577-6613-474A-8193-8097ACCDB65D}" uniqueName="6" name="lec1" queryTableFieldId="6" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{CFA4096E-F675-4571-9B6D-83BB641558C0}" uniqueName="7" name="lec2" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{0D8F4051-1CF1-4D07-A2EE-17FAA149A10D}" uniqueName="8" name="lec3" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{79E4657A-C65C-4AC7-89F0-C2ECAAAC78E3}" uniqueName="2" name="eje1" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2E319FDF-AC9A-4FFA-986F-4451AB8C9772}" uniqueName="3" name="eje2" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{814EF27A-7228-4467-AD5B-A40C0BF24D9F}" uniqueName="4" name="eje3" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5F6429AF-B6DD-4860-86D3-65C390A5A50D}" uniqueName="5" name="eje4" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{D433EA0A-F016-4188-8831-3D74C2D62DBA}" uniqueName="10" name="bienvenida" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{D43AA51E-2FE9-4185-A155-850F4BF223C1}" uniqueName="11" name="dag" queryTableFieldId="11" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{2A8DFE4E-0DA8-4D9A-A208-A798D6135810}" uniqueName="12" name="epistemología" queryTableFieldId="12" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{0779510D-D57B-4E9A-B22A-25796A297038}" uniqueName="13" name="hipotesis" queryTableFieldId="13" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{248E70DC-780C-4CBD-BF94-7D153488C6E0}" uniqueName="14" name="calificación " queryTableFieldId="18" dataDxfId="2">
       <calculatedColumnFormula>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{F601133F-AE9A-4BDD-B4D8-3737C0237ACF}" uniqueName="15" name="calif-final-ajustada" queryTableFieldId="19" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{F601133F-AE9A-4BDD-B4D8-3737C0237ACF}" uniqueName="15" name="calif-final-ajustada" queryTableFieldId="19" dataDxfId="1">
       <calculatedColumnFormula>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{EF9FB799-1C2A-4FC9-88DB-999C5C35D854}" uniqueName="16" name="comentarios" queryTableFieldId="27" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{EF9FB799-1C2A-4FC9-88DB-999C5C35D854}" uniqueName="16" name="comentarios" queryTableFieldId="27" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -767,7 +764,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,10 +845,10 @@
       <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
         <v>8</v>
       </c>
       <c r="H2" s="2">
@@ -860,28 +857,28 @@
       <c r="I2" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>2.5249999999999999</v>
       </c>
       <c r="K2" s="2">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>7.1428571428571432</v>
       </c>
       <c r="M2" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>9.5</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>9.870848214285715</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -899,10 +896,10 @@
       <c r="E3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
         <v>9</v>
       </c>
       <c r="H3" s="2">
@@ -911,31 +908,31 @@
       <c r="I3" s="1">
         <v>10</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>5.0250000000000004</v>
       </c>
       <c r="K3" s="2">
         <v>10</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>5.7142857142857135</v>
       </c>
       <c r="M3" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>9.75</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2">
@@ -950,10 +947,10 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
         <v>7</v>
       </c>
       <c r="H4" s="2">
@@ -962,28 +959,28 @@
       <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>5.0250000000000004</v>
       </c>
       <c r="K4" s="2">
         <v>5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>5.7142857142857135</v>
       </c>
       <c r="M4" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>8.5</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>8.8217410714285709</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1001,7 +998,7 @@
       <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
       <c r="G5" s="2">
@@ -1013,28 +1010,28 @@
       <c r="I5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>5.0250000000000004</v>
       </c>
       <c r="K5" s="2">
         <v>5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>7.1428571428571432</v>
       </c>
       <c r="M5" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>7.5</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>7.8395982142857141</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1052,7 +1049,7 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>10</v>
       </c>
       <c r="G6" s="2">
@@ -1064,28 +1061,28 @@
       <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>6.6916666666666655</v>
       </c>
       <c r="K6" s="2">
         <v>10</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>10</v>
       </c>
       <c r="M6" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>8.25</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>8.7086458333333336</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1103,7 +1100,7 @@
       <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="2">
@@ -1115,28 +1112,28 @@
       <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>7.5250000000000004</v>
       </c>
       <c r="K7" s="2">
         <v>5</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>7.1428571428571432</v>
       </c>
       <c r="M7" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>10</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>10</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1154,7 +1151,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2">
@@ -1166,28 +1163,28 @@
       <c r="I8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>2.5</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>8.5714285714285712</v>
       </c>
       <c r="M8" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>8.75</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>9.0758928571428577</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1205,7 +1202,7 @@
       <c r="E9" s="2">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>10</v>
       </c>
       <c r="G9" s="2">
@@ -1217,31 +1214,31 @@
       <c r="I9" s="1">
         <v>10</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>10</v>
       </c>
       <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>7.1428571428571432</v>
       </c>
       <c r="M9" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>8.75</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>9.1517857142857135</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2">
@@ -1256,40 +1253,40 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="3">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
         <v>6</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>5</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>7.5250000000000004</v>
       </c>
       <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>7.1428571428571432</v>
       </c>
       <c r="M10" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>7.75</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>8.120848214285715</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1307,11 +1304,11 @@
       <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="2">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H11" s="2">
         <v>9</v>
@@ -1319,28 +1316,28 @@
       <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>6.6916666666666655</v>
       </c>
       <c r="K11" s="2">
         <v>5</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>8.5714285714285712</v>
       </c>
       <c r="M11" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
-        <v>8.5</v>
-      </c>
-      <c r="N11" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="N11" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
-        <v>8.8782886904761913</v>
-      </c>
-      <c r="O11" s="4" t="s">
+        <v>9.7532886904761913</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1358,7 +1355,7 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2">
@@ -1370,28 +1367,28 @@
       <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>10</v>
       </c>
       <c r="K12" s="2">
         <v>5</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>7.1428571428571432</v>
       </c>
       <c r="M12" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>8</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>8.4017857142857135</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1409,7 +1406,7 @@
       <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>10</v>
       </c>
       <c r="G13" s="2">
@@ -1421,28 +1418,28 @@
       <c r="I13" s="1">
         <v>10</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>2.5</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>7.1428571428571432</v>
       </c>
       <c r="M13" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>10</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>10</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1460,7 +1457,7 @@
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>10</v>
       </c>
       <c r="G14" s="2">
@@ -1472,28 +1469,28 @@
       <c r="I14" s="1">
         <v>10</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>5.0250000000000004</v>
       </c>
       <c r="K14" s="2">
         <v>5</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>8.5714285714285712</v>
       </c>
       <c r="M14" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>8.25</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>8.6074553571428574</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1511,7 +1508,7 @@
       <c r="E15" s="2">
         <v>10</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>10</v>
       </c>
       <c r="G15" s="2">
@@ -1523,192 +1520,80 @@
       <c r="I15" s="1">
         <v>10</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>7.5250000000000004</v>
       </c>
       <c r="K15" s="2">
         <v>5</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>8.5714285714285712</v>
       </c>
       <c r="M15" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
         <v>8.25</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
         <v>8.6387053571428574</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K19:R32">

--- a/_encuestas/Calificaciones-2026.xlsx
+++ b/_encuestas/Calificaciones-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equih\0 Versiones\Cursos\m3-causalidad\2026\_encuestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791FEA0A-06CE-4BB2-AF3E-6041E031E18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A5C93-EADD-4BDC-A7AD-8930D2DB7072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{57F80845-2267-40DF-BE0E-C1B19A076F2C}"/>
   </bookViews>
@@ -764,7 +764,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
@@ -1531,11 +1531,11 @@
       </c>
       <c r="M15" s="2">
         <f>AVERAGE(entregados[[#This Row],[eje1]:[eje4]])</f>
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="N15" s="3">
         <f>IF(entregados[[#This Row],[calificación ]]&lt;10,IF((entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20)&gt;10,10, entregados[[#This Row],[calificación ]] + AVERAGE(entregados[[#This Row],[bienvenida]:[hipotesis]])/20), 10)</f>
-        <v>8.6387053571428574</v>
+        <v>9.8887053571428574</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>39</v>
